--- a/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第14章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第14章 角色统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>角色</t>
   </si>
@@ -43,49 +43,52 @@
     <t>邓布利多</t>
   </si>
   <si>
+    <t>波特</t>
+  </si>
+  <si>
     <t>神秘人</t>
   </si>
   <si>
-    <t>波特</t>
+    <t>斯内普</t>
   </si>
   <si>
     <t>胖夫人</t>
   </si>
   <si>
-    <t>斯内普</t>
-  </si>
-  <si>
     <t>德拉科</t>
   </si>
   <si>
+    <t>格兰杰</t>
+  </si>
+  <si>
+    <t>奇洛</t>
+  </si>
+  <si>
+    <t>穆迪</t>
+  </si>
+  <si>
+    <t>高尔</t>
+  </si>
+  <si>
     <t>克拉布</t>
   </si>
   <si>
-    <t>奇洛</t>
-  </si>
-  <si>
-    <t>格兰杰</t>
-  </si>
-  <si>
     <t>纳威</t>
   </si>
   <si>
-    <t>高尔</t>
-  </si>
-  <si>
     <t>克鲁克山</t>
   </si>
   <si>
-    <t>穆迪</t>
+    <t>隆巴顿</t>
+  </si>
+  <si>
+    <t>斯普劳特</t>
+  </si>
+  <si>
+    <t>洛哈特</t>
   </si>
   <si>
     <t>卢平</t>
-  </si>
-  <si>
-    <t>隆巴顿</t>
-  </si>
-  <si>
-    <t>洛哈特</t>
   </si>
   <si>
     <t>小天狼星</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -539,7 +542,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -550,7 +553,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -561,7 +564,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -572,7 +575,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -594,7 +597,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -605,7 +608,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -616,7 +619,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -627,7 +630,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -638,7 +641,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -649,7 +652,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -660,7 +663,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -671,7 +674,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -682,7 +685,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -693,7 +696,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -704,12 +707,23 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
     </row>
